--- a/rosters/2023/Oklahoma City/Oklahoma City.xlsx
+++ b/rosters/2023/Oklahoma City/Oklahoma City.xlsx
@@ -46,141 +46,138 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
     <t>Luguentz Dort</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
+    <t>Isaiah Joe</t>
   </si>
   <si>
     <t>Kenrich Williams</t>
   </si>
   <si>
-    <t>Isaiah Joe</t>
-  </si>
-  <si>
     <t>Aaron Wiggins</t>
   </si>
   <si>
-    <t>Mike Muscala</t>
-  </si>
-  <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
     <t>Jeremiah Robinson-Earl</t>
   </si>
   <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
     <t>Eugene Omoruyi (TW)</t>
   </si>
   <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
-    <t>Jaylin Williams</t>
+    <t>Dario Šarić</t>
   </si>
   <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
+    <t>Justin Jackson</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>July 12, 1998</t>
+  </si>
+  <si>
+    <t>April 14, 2001</t>
+  </si>
+  <si>
+    <t>October 10, 2002</t>
+  </si>
+  <si>
+    <t>February 3, 2001</t>
+  </si>
+  <si>
     <t>April 19, 1999</t>
   </si>
   <si>
-    <t>July 12, 1998</t>
-  </si>
-  <si>
-    <t>April 14, 2001</t>
-  </si>
-  <si>
-    <t>October 10, 2002</t>
-  </si>
-  <si>
-    <t>February 3, 2001</t>
+    <t>July 2, 1999</t>
   </si>
   <si>
     <t>December 2, 1994</t>
   </si>
   <si>
-    <t>July 2, 1999</t>
-  </si>
-  <si>
     <t>January 2, 1999</t>
   </si>
   <si>
-    <t>July 1, 1991</t>
-  </si>
-  <si>
     <t>December 26, 2001</t>
   </si>
   <si>
-    <t>June 12, 2000</t>
-  </si>
-  <si>
     <t>November 3, 2000</t>
   </si>
   <si>
+    <t>June 29, 2002</t>
+  </si>
+  <si>
     <t>February 14, 1997</t>
   </si>
   <si>
     <t>May 21, 2003</t>
   </si>
   <si>
-    <t>June 29, 2002</t>
+    <t>April 8, 1994</t>
   </si>
   <si>
     <t>May 1, 2002</t>
   </si>
   <si>
+    <t>March 28, 1995</t>
+  </si>
+  <si>
     <t>ca</t>
   </si>
   <si>
@@ -199,48 +196,48 @@
     <t>fr</t>
   </si>
   <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>9</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
   <si>
     <t>Arizona State</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Florida</t>
+    <t>Arkansas</t>
   </si>
   <si>
     <t>TCU</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Maryland</t>
   </si>
   <si>
-    <t>Bucknell</t>
-  </si>
-  <si>
     <t>Villanova</t>
   </si>
   <si>
@@ -250,52 +247,55 @@
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/gilgesh01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/willija06.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/giddejo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/manntr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/dortlu01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gilgesh01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/willija06.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/giddejo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/manntr01.html</t>
+    <t>https://www.basketball-reference.com/players/j/joeis01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/willike04.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/joeis01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/wiggiaa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/muscami01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/pokusal01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bazleda01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/robinje02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/willija07.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/o/omorueu01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/diengou01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/willija07.html</t>
+    <t>https://www.basketball-reference.com/players/s/saricda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/holmgch01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jacksju01.html</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -753,13 +753,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>55</v>
@@ -779,31 +779,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>80</v>
@@ -814,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -823,19 +820,22 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -855,16 +855,16 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
         <v>64</v>
@@ -881,28 +881,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>71</v>
@@ -916,28 +916,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
         <v>72</v>
@@ -957,22 +957,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>73</v>
@@ -986,31 +986,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>86</v>
@@ -1021,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1030,19 +1027,22 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>87</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1062,19 +1062,22 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>88</v>
@@ -1085,28 +1088,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
         <v>75</v>
@@ -1120,31 +1123,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>90</v>
@@ -1154,29 +1154,26 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>91</v>
@@ -1186,9 +1183,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1196,22 +1190,22 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>92</v>
@@ -1225,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>77</v>

--- a/rosters/2023/Oklahoma City/Oklahoma City.xlsx
+++ b/rosters/2023/Oklahoma City/Oklahoma City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>No.</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Jaylin Williams</t>
   </si>
   <si>
-    <t>Eugene Omoruyi (TW)</t>
+    <t>Eugene Omoruyi</t>
   </si>
   <si>
     <t>Ousmane Dieng</t>
@@ -91,7 +91,7 @@
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Justin Jackson</t>
+    <t>Olivier Sarr (TW)</t>
   </si>
   <si>
     <t>PG</t>
@@ -106,6 +106,9 @@
     <t>SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
@@ -175,7 +178,7 @@
     <t>May 1, 2002</t>
   </si>
   <si>
-    <t>March 28, 1995</t>
+    <t>February 20, 1999</t>
   </si>
   <si>
     <t>ca</t>
@@ -247,7 +250,7 @@
     <t>Gonzaga</t>
   </si>
   <si>
-    <t>UNC</t>
+    <t>Wake Forest, Kentucky</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gilgesh01.html</t>
@@ -295,7 +298,7 @@
     <t>https://www.basketball-reference.com/players/h/holmgch01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jacksju01.html</t>
+    <t>https://www.basketball-reference.com/players/s/sarrol01.html</t>
   </si>
 </sst>
 </file>
@@ -718,25 +721,25 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -753,25 +756,25 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -788,22 +791,22 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -820,25 +823,25 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -855,25 +858,25 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -890,25 +893,25 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -925,25 +928,25 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -960,25 +963,25 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -995,22 +998,22 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1027,25 +1030,25 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1062,25 +1065,25 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1097,25 +1100,25 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1132,28 +1135,31 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -1161,22 +1167,22 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>225</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1190,25 +1196,25 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1219,28 +1225,28 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Oklahoma City/Oklahoma City.xlsx
+++ b/rosters/2023/Oklahoma City/Oklahoma City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>No.</t>
   </si>
@@ -46,40 +46,40 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Isaiah Joe</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Isaiah Joe</t>
+    <t>Aaron Wiggins</t>
   </si>
   <si>
     <t>Kenrich Williams</t>
   </si>
   <si>
-    <t>Aaron Wiggins</t>
+    <t>Jeremiah Robinson-Earl</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
   </si>
   <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
-    <t>Jeremiah Robinson-Earl</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Eugene Omoruyi</t>
+    <t>Lindy Waters III</t>
   </si>
   <si>
     <t>Ousmane Dieng</t>
@@ -88,18 +88,21 @@
     <t>Dario Šarić</t>
   </si>
   <si>
+    <t>Olivier Sarr (TW)</t>
+  </si>
+  <si>
+    <t>Jared Butler (TW)</t>
+  </si>
+  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Olivier Sarr (TW)</t>
+    <t>SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -109,64 +112,61 @@
     <t>C</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>7-0</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>6-7</t>
+    <t>October 10, 2002</t>
+  </si>
+  <si>
+    <t>April 14, 2001</t>
+  </si>
+  <si>
+    <t>April 19, 1999</t>
+  </si>
+  <si>
+    <t>July 2, 1999</t>
+  </si>
+  <si>
+    <t>February 3, 2001</t>
   </si>
   <si>
     <t>July 12, 1998</t>
   </si>
   <si>
-    <t>April 14, 2001</t>
-  </si>
-  <si>
-    <t>October 10, 2002</t>
-  </si>
-  <si>
-    <t>February 3, 2001</t>
-  </si>
-  <si>
-    <t>April 19, 1999</t>
-  </si>
-  <si>
-    <t>July 2, 1999</t>
+    <t>January 2, 1999</t>
   </si>
   <si>
     <t>December 2, 1994</t>
   </si>
   <si>
-    <t>January 2, 1999</t>
+    <t>November 3, 2000</t>
+  </si>
+  <si>
+    <t>June 29, 2002</t>
   </si>
   <si>
     <t>December 26, 2001</t>
   </si>
   <si>
-    <t>November 3, 2000</t>
-  </si>
-  <si>
-    <t>June 29, 2002</t>
-  </si>
-  <si>
-    <t>February 14, 1997</t>
+    <t>July 28, 1997</t>
   </si>
   <si>
     <t>May 21, 2003</t>
@@ -175,118 +175,121 @@
     <t>April 8, 1994</t>
   </si>
   <si>
+    <t>February 20, 1999</t>
+  </si>
+  <si>
+    <t>August 25, 2000</t>
+  </si>
+  <si>
     <t>May 1, 2002</t>
   </si>
   <si>
-    <t>February 20, 1999</t>
+    <t>au</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
   <si>
     <t>ca</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>au</t>
-  </si>
-  <si>
     <t>rs</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
     <t>fr</t>
   </si>
   <si>
     <t>hr</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Arizona State</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
+    <t>Maryland</t>
   </si>
   <si>
     <t>TCU</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Rutgers University, Oregon</t>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Wake Forest, Kentucky</t>
+  </si>
+  <si>
+    <t>Baylor</t>
   </si>
   <si>
     <t>Gonzaga</t>
   </si>
   <si>
-    <t>Wake Forest, Kentucky</t>
+    <t>https://www.basketball-reference.com/players/g/giddejo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/willija06.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/d/dortlu01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/joeis01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/manntr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gilgesh01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/willija06.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/giddejo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/manntr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/dortlu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/joeis01.html</t>
+    <t>https://www.basketball-reference.com/players/w/wiggiaa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/willike04.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wiggiaa01.html</t>
+    <t>https://www.basketball-reference.com/players/r/robinje02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/willija07.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pokusal01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/robinje02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/willija07.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/o/omorueu01.html</t>
+    <t>https://www.basketball-reference.com/players/w/waterli01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/diengou01.html</t>
@@ -295,10 +298,13 @@
     <t>https://www.basketball-reference.com/players/s/saricda01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/sarrol01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/butleja02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/holmgch01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/sarrol01.html</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,34 +718,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -756,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>195</v>
@@ -765,16 +768,16 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -782,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -791,22 +794,25 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
       </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -814,34 +820,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -849,34 +855,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -884,25 +890,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
@@ -911,7 +917,7 @@
         <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -919,25 +925,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>62</v>
@@ -946,7 +952,7 @@
         <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -954,34 +960,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -989,31 +995,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1021,34 +1030,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1056,34 +1065,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1091,34 +1097,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1132,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -1150,7 +1156,7 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1164,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
@@ -1182,71 +1188,109 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>195</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1267,6 +1311,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Oklahoma City/Oklahoma City.xlsx
+++ b/rosters/2023/Oklahoma City/Oklahoma City.xlsx
@@ -70,12 +70,12 @@
     <t>Kenrich Williams</t>
   </si>
   <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
     <t>Jeremiah Robinson-Earl</t>
   </si>
   <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>7-0</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>December 2, 1994</t>
   </si>
   <si>
+    <t>June 29, 2002</t>
+  </si>
+  <si>
     <t>November 3, 2000</t>
   </si>
   <si>
-    <t>June 29, 2002</t>
-  </si>
-  <si>
     <t>December 26, 2001</t>
   </si>
   <si>
@@ -280,10 +280,10 @@
     <t>https://www.basketball-reference.com/players/w/willike04.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/willija07.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/robinje02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/willija07.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pokusal01.html</t>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1007,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -1016,10 +1016,10 @@
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>88</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1042,7 +1042,7 @@
         <v>37</v>
       </c>
       <c r="F11">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1051,10 +1051,10 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>89</v>
@@ -1141,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>216</v>
@@ -1173,7 +1173,7 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>225</v>

--- a/rosters/2023/Oklahoma City/Oklahoma City.xlsx
+++ b/rosters/2023/Oklahoma City/Oklahoma City.xlsx
@@ -58,12 +58,12 @@
     <t>Isaiah Joe</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>Tre Mann</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
     <t>Aaron Wiggins</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>Jeremiah Robinson-Earl</t>
   </si>
   <si>
+    <t>Lindy Waters III</t>
+  </si>
+  <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
-    <t>Lindy Waters III</t>
-  </si>
-  <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>July 2, 1999</t>
   </si>
   <si>
+    <t>July 12, 1998</t>
+  </si>
+  <si>
     <t>February 3, 2001</t>
   </si>
   <si>
-    <t>July 12, 1998</t>
-  </si>
-  <si>
     <t>January 2, 1999</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>November 3, 2000</t>
   </si>
   <si>
+    <t>July 28, 1997</t>
+  </si>
+  <si>
     <t>December 26, 2001</t>
   </si>
   <si>
-    <t>July 28, 1997</t>
-  </si>
-  <si>
     <t>May 21, 2003</t>
   </si>
   <si>
@@ -229,12 +229,12 @@
     <t>Arkansas</t>
   </si>
   <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Maryland</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>https://www.basketball-reference.com/players/j/joeis01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/gilgesh01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/manntr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gilgesh01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/wiggiaa01.html</t>
   </si>
   <si>
@@ -286,10 +286,10 @@
     <t>https://www.basketball-reference.com/players/r/robinje02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/waterli01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/pokusal01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/waterli01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/diengou01.html</t>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -864,19 +864,19 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -899,19 +899,19 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>72</v>
@@ -1065,28 +1065,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>90</v>
@@ -1097,31 +1100,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>91</v>

--- a/rosters/2023/Oklahoma City/Oklahoma City.xlsx
+++ b/rosters/2023/Oklahoma City/Oklahoma City.xlsx
@@ -58,15 +58,15 @@
     <t>Isaiah Joe</t>
   </si>
   <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
     <t>Tre Mann</t>
   </si>
   <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
     <t>Kenrich Williams</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Lindy Waters III</t>
   </si>
   <si>
+    <t>Ousmane Dieng</t>
+  </si>
+  <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
-    <t>Ousmane Dieng</t>
-  </si>
-  <si>
     <t>Dario Šarić</t>
   </si>
   <si>
@@ -145,15 +145,15 @@
     <t>July 2, 1999</t>
   </si>
   <si>
+    <t>January 2, 1999</t>
+  </si>
+  <si>
     <t>July 12, 1998</t>
   </si>
   <si>
     <t>February 3, 2001</t>
   </si>
   <si>
-    <t>January 2, 1999</t>
-  </si>
-  <si>
     <t>December 2, 1994</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>July 28, 1997</t>
   </si>
   <si>
+    <t>May 21, 2003</t>
+  </si>
+  <si>
     <t>December 26, 2001</t>
   </si>
   <si>
-    <t>May 21, 2003</t>
-  </si>
-  <si>
     <t>April 8, 1994</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>ca</t>
   </si>
   <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>rs</t>
   </si>
   <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>hr</t>
   </si>
   <si>
@@ -229,15 +229,15 @@
     <t>Arkansas</t>
   </si>
   <si>
+    <t>Maryland</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>TCU</t>
   </si>
   <si>
@@ -268,15 +268,15 @@
     <t>https://www.basketball-reference.com/players/j/joeis01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/wiggiaa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/gilgesh01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/manntr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wiggiaa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/willike04.html</t>
   </si>
   <si>
@@ -289,10 +289,10 @@
     <t>https://www.basketball-reference.com/players/w/waterli01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/diengou01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/pokusal01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/diengou01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/saricda01.html</t>
@@ -855,28 +855,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -899,19 +899,19 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
         <v>72</v>
@@ -925,19 +925,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1100,19 +1100,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1121,7 +1121,7 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>91</v>
@@ -1132,19 +1132,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1153,7 +1153,7 @@
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>92</v>
@@ -1214,7 +1214,7 @@
         <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
         <v>62</v>
